--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Apob-Ldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Apob-Ldlr.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.425703666666666</v>
+        <v>0.8317113333333332</v>
       </c>
       <c r="N2">
-        <v>4.277111</v>
+        <v>2.495134</v>
       </c>
       <c r="O2">
-        <v>0.04715501820393346</v>
+        <v>0.0263454906755698</v>
       </c>
       <c r="P2">
-        <v>0.04715501820393346</v>
+        <v>0.0263454906755698</v>
       </c>
       <c r="Q2">
-        <v>1.824178812043444</v>
+        <v>1.064169383494889</v>
       </c>
       <c r="R2">
-        <v>16.417609308391</v>
+        <v>9.577524451453998</v>
       </c>
       <c r="S2">
-        <v>0.04715501820393346</v>
+        <v>0.0263454906755698</v>
       </c>
       <c r="T2">
-        <v>0.04715501820393346</v>
+        <v>0.0263454906755698</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>61.843018</v>
       </c>
       <c r="O3">
-        <v>0.6818173855147049</v>
+        <v>0.6529848313028861</v>
       </c>
       <c r="P3">
-        <v>0.6818173855147048</v>
+        <v>0.6529848313028862</v>
       </c>
       <c r="Q3">
         <v>26.37591661951755</v>
@@ -632,10 +632,10 @@
         <v>237.383249575658</v>
       </c>
       <c r="S3">
-        <v>0.6818173855147049</v>
+        <v>0.6529848313028861</v>
       </c>
       <c r="T3">
-        <v>0.6818173855147048</v>
+        <v>0.6529848313028862</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.194356666666666</v>
+        <v>10.12334933333333</v>
       </c>
       <c r="N4">
-        <v>24.58307</v>
+        <v>30.370048</v>
       </c>
       <c r="O4">
-        <v>0.2710275962813615</v>
+        <v>0.3206696780215441</v>
       </c>
       <c r="P4">
-        <v>0.2710275962813615</v>
+        <v>0.3206696780215441</v>
       </c>
       <c r="Q4">
-        <v>10.48462745740778</v>
+        <v>12.95276135745422</v>
       </c>
       <c r="R4">
-        <v>94.36164711667</v>
+        <v>116.574852217088</v>
       </c>
       <c r="S4">
-        <v>0.2710275962813615</v>
+        <v>0.3206696780215441</v>
       </c>
       <c r="T4">
-        <v>0.2710275962813615</v>
+        <v>0.3206696780215441</v>
       </c>
     </row>
   </sheetData>
